--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthority.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthority.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B1FBB-84B5-464B-A2B7-8F7CA888509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -163,10 +166,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>權限檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AuthNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -204,13 +203,17 @@
   </si>
   <si>
     <t>0.無權限1.僅查詢權限2.全部權限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組權限檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -469,8 +472,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,6 +564,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -596,6 +616,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -771,40 +808,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="21" customWidth="1"/>
     <col min="3" max="3" width="27" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="12"/>
+    <col min="4" max="4" width="10.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="13" t="s">
@@ -817,20 +854,20 @@
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
@@ -841,7 +878,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
@@ -852,7 +889,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
@@ -863,7 +900,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
@@ -874,7 +911,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -897,15 +934,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -916,13 +953,13 @@
       <c r="F9" s="6"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="21">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>26</v>
@@ -936,7 +973,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A11" s="21">
         <f t="shared" ref="A11:A15" si="0">A10+1</f>
         <v>3</v>
@@ -955,10 +992,10 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -974,7 +1011,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -992,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1008,7 +1045,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1043,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1051,15 +1088,15 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1070,23 +1107,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
